--- a/Supplementary file 1.xlsx
+++ b/Supplementary file 1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krdav/Google Drive/MCB/Sullivan_lab/tRNA_charging/supplementary/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krdav/Google Drive/MCB/Sullivan_lab/tRNAseq_Elife/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B467F5B2-D269-A74E-9775-32989FA18AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2812A2B0-8679-8844-BDD7-32C07310FD8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1340" yWindow="4960" windowWidth="27280" windowHeight="12860" xr2:uid="{0E9A7EF9-1E63-714B-A16C-FFB8EEC932B5}"/>
   </bookViews>
@@ -228,18 +228,6 @@
     <t>/5Phos/TNNNNNNGACTAAGATCGGAAGAGCACACGTCTGAA/3ddC/</t>
   </si>
   <si>
-    <t>l1</t>
-  </si>
-  <si>
-    <t>l2</t>
-  </si>
-  <si>
-    <t>l3</t>
-  </si>
-  <si>
-    <t>l4</t>
-  </si>
-  <si>
     <t>l1N</t>
   </si>
   <si>
@@ -778,6 +766,18 @@
   </si>
   <si>
     <t>Adapter used for charge tRNAseq using splint assisted ligation. Note, this barcode was associated with a small overestimate in charge measurements.</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
   </si>
 </sst>
 </file>
@@ -1188,8 +1188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0383E97-8069-9C46-BA69-FEB4CE12479D}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="75" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="75" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1211,7 +1211,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
@@ -1225,7 +1225,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
@@ -1239,7 +1239,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
@@ -1253,12 +1253,12 @@
         <v>5</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>63</v>
+        <v>243</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>58</v>
@@ -1267,12 +1267,12 @@
         <v>37</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>64</v>
+        <v>244</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>59</v>
@@ -1281,12 +1281,12 @@
         <v>37</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>65</v>
+        <v>245</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>60</v>
@@ -1295,12 +1295,12 @@
         <v>37</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>66</v>
+        <v>246</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>61</v>
@@ -1309,12 +1309,12 @@
         <v>37</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>62</v>
@@ -1323,35 +1323,35 @@
         <v>37</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
@@ -1365,7 +1365,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
@@ -1379,35 +1379,35 @@
         <v>10</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>242</v>
-      </c>
       <c r="C14" s="5" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>241</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
@@ -1421,7 +1421,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
@@ -1435,7 +1435,7 @@
         <v>15</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
@@ -1449,7 +1449,7 @@
         <v>15</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
@@ -1463,7 +1463,7 @@
         <v>15</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
@@ -1477,7 +1477,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
@@ -1491,7 +1491,7 @@
         <v>15</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
@@ -1505,7 +1505,7 @@
         <v>15</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
@@ -1519,7 +1519,7 @@
         <v>15</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.25">
@@ -1533,52 +1533,52 @@
         <v>15</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F27" s="6"/>
     </row>
@@ -1593,7 +1593,7 @@
         <v>34</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
@@ -1607,7 +1607,7 @@
         <v>37</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
@@ -1621,7 +1621,7 @@
         <v>37</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
@@ -1635,7 +1635,7 @@
         <v>37</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
@@ -1649,7 +1649,7 @@
         <v>37</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
@@ -1663,7 +1663,7 @@
         <v>37</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
@@ -1677,7 +1677,7 @@
         <v>37</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
@@ -1691,7 +1691,7 @@
         <v>37</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
@@ -1705,7 +1705,7 @@
         <v>37</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
@@ -1719,7 +1719,7 @@
         <v>37</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
@@ -1733,7 +1733,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1759,717 +1759,717 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B8" s="8">
         <v>8160</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B18" s="8">
         <v>7958838001</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B25" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C25" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B28" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C28" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B33" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C33" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B34" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C34" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B49" s="8">
         <v>10597012</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
